--- a/data/armas.xlsx
+++ b/data/armas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OdooCDev\custom\genshin_impact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OdooCDev\custom\genshin_impact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11040A56-0766-4A26-9E76-EC2D95B9D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B39511D-061B-42E5-A35B-E1F2BBAA09D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -689,21 +689,6 @@
     <t>sub_stat</t>
   </si>
   <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>catalyst</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>claymore</t>
-  </si>
-  <si>
-    <t>polearm</t>
-  </si>
-  <si>
     <t>M. Elemental</t>
   </si>
   <si>
@@ -726,6 +711,21 @@
   </si>
   <si>
     <t>P. CRIT (%)</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>Polearm</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,19 +1098,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,19 +1121,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,22 +1144,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1167,19 +1167,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>136</v>
+        <v>220</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,19 +1190,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,19 +1213,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,22 +1236,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,19 +1259,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>149</v>
+        <v>220</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,19 +1282,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,22 +1305,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1328,19 +1328,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>156</v>
+        <v>221</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,19 +1351,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,19 +1374,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,19 +1397,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,19 +1443,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,19 +1466,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,19 +1489,19 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,19 +1512,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>122</v>
@@ -1547,7 +1547,7 @@
         <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>122</v>
@@ -1570,7 +1570,7 @@
         <v>225</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>122</v>
@@ -1593,7 +1593,7 @@
         <v>225</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>122</v>
@@ -1616,7 +1616,7 @@
         <v>225</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,19 +1627,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,19 +1673,19 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,19 +1696,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,19 +1719,19 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,19 +1742,19 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,19 +1765,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,19 +1788,19 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,19 +1811,19 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,19 +1834,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,19 +1857,19 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,19 +1880,19 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,19 +1926,19 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,19 +1949,19 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,19 +1972,19 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,19 +1995,19 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,19 +2018,19 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,19 +2041,19 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,19 +2064,19 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,19 +2087,19 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,19 +2110,19 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,19 +2133,19 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,19 +2156,19 @@
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,19 +2179,19 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,19 +2202,19 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,19 +2225,19 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,19 +2248,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,19 +2271,19 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,19 +2294,19 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,19 +2317,19 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,19 +2340,19 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,19 +2363,19 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,19 +2386,19 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,19 +2409,19 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,19 +2432,19 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,19 +2455,19 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,19 +2478,19 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,19 +2501,19 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,19 +2524,19 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,19 +2547,19 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,19 +2570,19 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>122</v>
@@ -2605,7 +2605,7 @@
         <v>223</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,19 +2616,19 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,19 +2639,19 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,10 +2662,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>122</v>
@@ -2674,10 +2674,10 @@
         <v>224</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -2685,10 +2685,10 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>122</v>
@@ -2696,8 +2696,8 @@
       <c r="F71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>139</v>
+      <c r="G71" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,10 +2708,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>122</v>
@@ -2720,7 +2720,7 @@
         <v>224</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,19 +2731,19 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,19 +2754,19 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,19 +2777,19 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,19 +2800,19 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,19 +2823,19 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,19 +2846,19 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,19 +2869,19 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,19 +2892,19 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,19 +2915,19 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>76</v>
@@ -2947,7 +2947,7 @@
         <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>179</v>
@@ -2961,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>79</v>
@@ -2970,7 +2970,7 @@
         <v>122</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>133</v>
@@ -2984,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>86</v>
@@ -2993,7 +2993,7 @@
         <v>122</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>183</v>
@@ -3007,19 +3007,19 @@
         <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,19 +3030,19 @@
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,19 +3053,19 @@
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,19 +3076,19 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,19 +3099,19 @@
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,19 +3122,19 @@
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,19 +3145,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,22 +3168,22 @@
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -3191,19 +3191,19 @@
         <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,19 +3214,19 @@
         <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,19 +3237,19 @@
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,19 +3260,19 @@
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,19 +3283,19 @@
         <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,19 +3306,19 @@
         <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,19 +3329,19 @@
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,19 +3352,19 @@
         <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,19 +3375,19 @@
         <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,19 +3398,19 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,19 +3421,19 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,19 +3444,19 @@
         <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,19 +3467,19 @@
         <v>4</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,19 +3490,19 @@
         <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,19 +3513,19 @@
         <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,19 +3536,19 @@
         <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,19 +3559,19 @@
         <v>4</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,19 +3582,19 @@
         <v>4</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,22 +3605,22 @@
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -3628,19 +3628,19 @@
         <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>168</v>
+        <v>219</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,19 +3651,19 @@
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,19 +3674,19 @@
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,19 +3697,19 @@
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3720,19 +3720,19 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,27 +3743,23 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G117" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
-      <sortCondition ref="F1:F117"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
